--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CARES\16Oct2024\CARES---Selenium-Automation-master (12)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C29077-1D1F-44FA-BF95-58F9E24DE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD812A-BFAA-4774-A839-6107C6FACA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,12 +1336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -1558,6 +1552,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1568,15 +1568,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1595,6 +1586,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CARES\16Oct2024\CARES---Selenium-Automation-master (12)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD812A-BFAA-4774-A839-6107C6FACA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990D9E7-004D-4862-8C95-44C731EF0A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,7 +612,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1336,6 +1336,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -1552,12 +1558,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1568,6 +1568,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1586,15 +1595,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CARES\16Oct2024\CARES---Selenium-Automation-master (12)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\newData\Latestfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990D9E7-004D-4862-8C95-44C731EF0A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66593F-AC2A-47C9-A9D2-326FB453A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>ScreenName</t>
   </si>
@@ -202,10 +202,13 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>RelatedFolios</t>
-  </si>
-  <si>
-    <t>ScreeningsInFolio</t>
+    <t>LocationServicesOrg</t>
+  </si>
+  <si>
+    <t>CredentialsOrg</t>
+  </si>
+  <si>
+    <t>SpecializationsOrg</t>
   </si>
   <si>
     <t>SD\Common.xlsx</t>
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -612,7 +615,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1164,7 +1167,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -1178,12 +1181,26 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
     </row>
@@ -1199,7 +1216,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\newData\Latestfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66593F-AC2A-47C9-A9D2-326FB453A3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E351E-450A-4585-8138-44CDF4264D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>ScreenName</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>SD\Common.xlsx</t>
+  </si>
+  <si>
+    <t>SD\Service.xlsx</t>
+  </si>
+  <si>
+    <t>SD\Organization.xlsx</t>
   </si>
 </sst>
 </file>
@@ -563,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -929,7 +935,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -943,7 +949,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -971,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -985,7 +991,7 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>53</v>
@@ -1167,7 +1173,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -1181,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
@@ -1195,7 +1201,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
@@ -1353,9 +1359,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,19 +1585,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1613,9 +1618,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E351E-450A-4585-8138-44CDF4264D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D7C7D-6871-4165-A7D2-98AAE369410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
   <si>
     <t>ScreenName</t>
   </si>
@@ -187,12 +187,6 @@
     <t>FolioAllegations</t>
   </si>
   <si>
-    <t>FolioDispositions</t>
-  </si>
-  <si>
-    <t>FolioCommercialSexualExploitati</t>
-  </si>
-  <si>
     <t>FolioDetails</t>
   </si>
   <si>
@@ -218,6 +212,54 @@
   </si>
   <si>
     <t>SD\Organization.xlsx</t>
+  </si>
+  <si>
+    <t>SD\Person.xlsx</t>
+  </si>
+  <si>
+    <t>PersonContactLogMembers</t>
+  </si>
+  <si>
+    <t>PersonDetails</t>
+  </si>
+  <si>
+    <t>PersonAKA</t>
+  </si>
+  <si>
+    <t>PersonHouseholdMemberships</t>
+  </si>
+  <si>
+    <t>PersonAddresses</t>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+  </si>
+  <si>
+    <t>PersonRelationships</t>
+  </si>
+  <si>
+    <t>PersonTribalInformation</t>
+  </si>
+  <si>
+    <t>FolioPerson</t>
+  </si>
+  <si>
+    <t>SD\Foilo.xlsx</t>
+  </si>
+  <si>
+    <t>Folioaddendums</t>
+  </si>
+  <si>
+    <t>FolioDisposition</t>
+  </si>
+  <si>
+    <t>FolioCommercialSexualExploitation</t>
+  </si>
+  <si>
+    <t>FolioValidatePerson</t>
+  </si>
+  <si>
+    <t>FolioDocuments</t>
   </si>
 </sst>
 </file>
@@ -282,10 +324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -621,7 +665,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -935,7 +979,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -949,7 +993,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -977,7 +1021,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -988,225 +1032,407 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1359,15 +1585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -1584,21 +1801,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1617,11 +1835,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D7C7D-6871-4165-A7D2-98AAE369410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7049B7-9BDD-416D-A9C9-AFE5B7F3E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\01Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7049B7-9BDD-416D-A9C9-AFE5B7F3E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C403160-48AE-4D72-B667-ECE653900637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="73">
   <si>
     <t>ScreenName</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>FolioPerson</t>
-  </si>
-  <si>
-    <t>SD\Foilo.xlsx</t>
   </si>
   <si>
     <t>Folioaddendums</t>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1119,7 +1116,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>45</v>
@@ -1133,7 +1130,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>46</v>
@@ -1158,13 +1155,13 @@
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1172,13 +1169,13 @@
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1214,13 +1211,13 @@
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1245,7 +1242,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1256,13 +1253,13 @@
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1270,13 +1267,13 @@
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1802,18 +1799,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1836,18 +1833,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76B188-3E29-4DFF-9C5A-040034F7206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827555F-6E5F-445B-B4FC-F2F9F986A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="177">
   <si>
     <t>ScreenName</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>SubmitToCalSAWS</t>
+  </si>
+  <si>
+    <t>CourtMinuteOrders</t>
   </si>
 </sst>
 </file>
@@ -975,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3277,29 +3280,29 @@
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1</v>
-      </c>
-      <c r="E143"/>
+      <c r="A143" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D144" s="6">
         <v>1</v>
@@ -3308,13 +3311,13 @@
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D145" s="6">
         <v>1</v>
@@ -3323,13 +3326,13 @@
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D146" s="6">
         <v>1</v>
@@ -3338,28 +3341,28 @@
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" s="6">
         <v>1</v>
       </c>
-      <c r="E147" s="6"/>
+      <c r="E147"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D148" s="6">
         <v>1</v>
@@ -3368,13 +3371,13 @@
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D149" s="6">
         <v>1</v>
@@ -3383,13 +3386,13 @@
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
@@ -3398,13 +3401,13 @@
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D151" s="6">
         <v>1</v>
@@ -3413,13 +3416,13 @@
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D152" s="6">
         <v>1</v>
@@ -3428,13 +3431,13 @@
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D153" s="6">
         <v>1</v>
@@ -3443,13 +3446,13 @@
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
@@ -3458,13 +3461,13 @@
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D155" s="6">
         <v>1</v>
@@ -3473,13 +3476,13 @@
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D156" s="6">
         <v>1</v>
@@ -3488,13 +3491,13 @@
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D157" s="6">
         <v>1</v>
@@ -3503,13 +3506,13 @@
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
@@ -3518,13 +3521,13 @@
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D159" s="6">
         <v>1</v>
@@ -3533,43 +3536,43 @@
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D160" s="6">
-        <v>1</v>
-      </c>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="B161" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C161" t="s">
-        <v>170</v>
-      </c>
-      <c r="D161">
+      <c r="C161" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161" s="6">
         <v>1</v>
       </c>
       <c r="E161"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
         <v>120</v>
       </c>
       <c r="C162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3578,13 +3581,13 @@
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
         <v>120</v>
       </c>
       <c r="C163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -3593,13 +3596,13 @@
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
         <v>120</v>
       </c>
       <c r="C164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3608,13 +3611,13 @@
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3623,18 +3626,33 @@
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>175</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166"/>
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3643,6 +3661,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3859,15 +3886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3879,6 +3897,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3893,14 +3919,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827555F-6E5F-445B-B4FC-F2F9F986A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A743389F-9B30-4EAB-A0D1-1FC6D8A53472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestDataMappingSheet_SD" sheetId="7" r:id="rId1"/>
+    <sheet name="TestDataMappingSheet_SD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
   <si>
     <t>ScreenName</t>
   </si>
@@ -473,6 +473,12 @@
     <t>cares\Courts.xlsx</t>
   </si>
   <si>
+    <t>Petition</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
     <t>GeneratePetition</t>
   </si>
   <si>
@@ -491,9 +497,6 @@
     <t>CourtWorkItems</t>
   </si>
   <si>
-    <t>Participants</t>
-  </si>
-  <si>
     <t>CaseFamilyTransfer</t>
   </si>
   <si>
@@ -512,36 +515,36 @@
     <t>EligibilityHomeOfRemoval</t>
   </si>
   <si>
+    <t>ChildIncomeAndProperty</t>
+  </si>
+  <si>
+    <t>FosterCareEligibilityInfo</t>
+  </si>
+  <si>
+    <t>ChildSupportEligibilityInfo</t>
+  </si>
+  <si>
+    <t>MediCalEligibilityRequestInfo</t>
+  </si>
+  <si>
+    <t>QualifiedResidentialTreatment</t>
+  </si>
+  <si>
+    <t>ExtendedFosterCareInfo</t>
+  </si>
+  <si>
+    <t>KinGapInformation</t>
+  </si>
+  <si>
+    <t>CommunicationsAndTransactions</t>
+  </si>
+  <si>
+    <t>EligibilityDocuments</t>
+  </si>
+  <si>
     <t>EligibilityAssignments</t>
   </si>
   <si>
-    <t>ChildIncomeAndProperty</t>
-  </si>
-  <si>
-    <t>FosterCareEligibilityInfo</t>
-  </si>
-  <si>
-    <t>ChildSupportEligibilityInfo</t>
-  </si>
-  <si>
-    <t>MediCalEligibilityRequestInfo</t>
-  </si>
-  <si>
-    <t>QualifiedResidentialTreatment</t>
-  </si>
-  <si>
-    <t>ExtendedFosterCareInfo</t>
-  </si>
-  <si>
-    <t>KinGapInformation</t>
-  </si>
-  <si>
-    <t>CommunicationsAndTransactions</t>
-  </si>
-  <si>
-    <t>EligibilityDocuments</t>
-  </si>
-  <si>
     <t>EligibilityGenerateDocument</t>
   </si>
   <si>
@@ -567,13 +570,22 @@
   </si>
   <si>
     <t>CourtMinuteOrders</t>
+  </si>
+  <si>
+    <t>CourtGenerateDocument</t>
+  </si>
+  <si>
+    <t>AmendPetition</t>
+  </si>
+  <si>
+    <t>Related</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,23 +600,17 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -616,13 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,16 +660,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,51 +980,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
-  <dimension ref="A1:Q167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.1796875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1037,19 +1029,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1065,17 +1046,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1088,19 +1060,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1113,19 +1074,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1138,20 +1088,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1167,19 +1105,8 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1192,20 +1119,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1218,20 +1133,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1244,20 +1147,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1270,20 +1161,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1296,20 +1175,8 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1322,20 +1189,8 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1348,20 +1203,8 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1374,9 +1217,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1389,9 +1231,8 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1404,9 +1245,8 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1419,9 +1259,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1434,9 +1273,8 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1449,9 +1287,8 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1464,9 +1301,8 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1479,9 +1315,8 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1494,9 +1329,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1509,9 +1343,8 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1524,9 +1357,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1539,9 +1371,8 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1554,9 +1385,8 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1569,9 +1399,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1584,9 +1413,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1599,9 +1427,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1614,9 +1441,8 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1629,9 +1455,8 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1644,9 +1469,8 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1659,9 +1483,8 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1674,9 +1497,8 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1689,9 +1511,8 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1704,9 +1525,8 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1719,9 +1539,8 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1734,9 +1553,8 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1749,9 +1567,8 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1764,9 +1581,8 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1779,9 +1595,8 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1794,9 +1609,8 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1809,9 +1623,8 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1824,9 +1637,8 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1836,10 +1648,8 @@
       <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1852,9 +1662,8 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1867,9 +1676,8 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1882,9 +1690,8 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1897,43 +1704,40 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
@@ -1942,9 +1746,8 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1957,9 +1760,8 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1972,9 +1774,8 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1987,69 +1788,64 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2062,9 +1858,8 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2077,9 +1872,8 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2092,9 +1886,8 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2107,9 +1900,8 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2122,9 +1914,8 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2137,9 +1928,8 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2152,9 +1942,8 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2167,9 +1956,8 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2182,9 +1970,8 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2197,9 +1984,8 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2212,9 +1998,8 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -2227,24 +2012,23 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -2257,9 +2041,8 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -2272,9 +2055,8 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -2287,9 +2069,8 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -2302,9 +2083,8 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -2317,9 +2097,8 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -2332,9 +2111,8 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -2347,9 +2125,8 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -2362,9 +2139,8 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -2377,9 +2153,8 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -2392,9 +2167,8 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -2407,9 +2181,8 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -2422,9 +2195,8 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -2437,9 +2209,8 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -2452,9 +2223,8 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -2467,9 +2237,8 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -2482,9 +2251,8 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -2497,9 +2265,8 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -2512,9 +2279,8 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -2527,9 +2293,8 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -2542,9 +2307,8 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -2557,9 +2321,8 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -2572,9 +2335,8 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -2587,9 +2349,8 @@
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -2602,9 +2363,8 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -2617,9 +2377,8 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -2632,9 +2391,8 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -2647,9 +2405,8 @@
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -2662,9 +2419,8 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -2677,9 +2433,8 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -2692,9 +2447,8 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -2707,9 +2461,8 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -2722,9 +2475,8 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -2737,9 +2489,8 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -2752,9 +2503,8 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -2767,9 +2517,8 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108"/>
-    </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -2782,9 +2531,8 @@
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="E109"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -2797,9 +2545,8 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -2812,9 +2559,8 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -2827,9 +2573,8 @@
       <c r="D112">
         <v>1</v>
       </c>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -2842,9 +2587,8 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -2857,9 +2601,8 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -2872,9 +2615,8 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -2887,9 +2629,8 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -2902,9 +2643,8 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -2917,9 +2657,8 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -2932,9 +2671,8 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -2947,9 +2685,8 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -2962,84 +2699,78 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B126" t="s">
         <v>120</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -3052,9 +2783,8 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -3067,9 +2797,8 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -3082,9 +2811,8 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -3097,9 +2825,8 @@
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -3112,9 +2839,8 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -3127,9 +2853,8 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -3142,9 +2867,8 @@
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -3157,24 +2881,22 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -3187,480 +2909,504 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B140" t="s">
         <v>144</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C140" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="6">
-        <v>1</v>
-      </c>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B141" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C141" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="6">
-        <v>1</v>
-      </c>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B142" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C142" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D139" s="6">
-        <v>1</v>
-      </c>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B143" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C143" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D140" s="6">
-        <v>1</v>
-      </c>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B144" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C144" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="6">
-        <v>1</v>
-      </c>
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B145" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C145" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D142" s="7">
-        <v>1</v>
-      </c>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B143" s="7" t="s">
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D143" s="7">
-        <v>1</v>
-      </c>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="6" t="s">
+      <c r="C146" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D144" s="6">
-        <v>1</v>
-      </c>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
+      <c r="C147" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1</v>
-      </c>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="6" t="s">
+      <c r="C148" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1</v>
-      </c>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
+      <c r="C149" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1</v>
-      </c>
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="6" t="s">
+      <c r="C150" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="D150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1</v>
-      </c>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
+      <c r="C151" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="D151" s="4">
+        <v>1</v>
+      </c>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C152" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D149" s="6">
-        <v>1</v>
-      </c>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="6" t="s">
+      <c r="D152" s="4">
+        <v>1</v>
+      </c>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C153" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="6">
-        <v>1</v>
-      </c>
-      <c r="E150" s="6"/>
-    </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
+      <c r="D153" s="4">
+        <v>1</v>
+      </c>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C154" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D151" s="6">
-        <v>1</v>
-      </c>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="6" t="s">
+      <c r="D154" s="4">
+        <v>1</v>
+      </c>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C155" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D152" s="6">
-        <v>1</v>
-      </c>
-      <c r="E152" s="6"/>
-    </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
+      <c r="D155" s="4">
+        <v>1</v>
+      </c>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C156" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D153" s="6">
-        <v>1</v>
-      </c>
-      <c r="E153" s="6"/>
-    </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="6" t="s">
+      <c r="D156" s="4">
+        <v>1</v>
+      </c>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C157" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D154" s="6">
-        <v>1</v>
-      </c>
-      <c r="E154" s="6"/>
-    </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="6" t="s">
+      <c r="D157" s="4">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C158" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="6">
-        <v>1</v>
-      </c>
-      <c r="E155" s="6"/>
-    </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="6" t="s">
+      <c r="D158" s="4">
+        <v>1</v>
+      </c>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C159" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D156" s="6">
-        <v>1</v>
-      </c>
-      <c r="E156" s="6"/>
-    </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="6" t="s">
+      <c r="D159" s="4">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C160" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D157" s="6">
-        <v>1</v>
-      </c>
-      <c r="E157" s="6"/>
-    </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
+      <c r="D160" s="4">
+        <v>1</v>
+      </c>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C161" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D158" s="6">
-        <v>1</v>
-      </c>
-      <c r="E158" s="6"/>
-    </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" s="6" t="s">
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D159" s="6">
-        <v>1</v>
-      </c>
-      <c r="E159" s="6"/>
-    </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="6" t="s">
+      <c r="C162" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="D162" s="4">
+        <v>1</v>
+      </c>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D160" s="6">
-        <v>1</v>
-      </c>
-      <c r="E160" s="6"/>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="6" t="s">
+      <c r="C163" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1</v>
-      </c>
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="C164" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B162" t="s">
-        <v>120</v>
-      </c>
-      <c r="C162" t="s">
-        <v>170</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>171</v>
-      </c>
-      <c r="B163" t="s">
-        <v>120</v>
-      </c>
-      <c r="C163" t="s">
-        <v>171</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>172</v>
-      </c>
-      <c r="B164" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" t="s">
-        <v>172</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="E166"/>
-    </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
         <v>120</v>
       </c>
       <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>175</v>
       </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167"/>
+      <c r="B169" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3669,7 +3415,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3886,26 +3632,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -3923,18 +3676,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A743389F-9B30-4EAB-A0D1-1FC6D8A53472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC7F69E-4F2F-469B-978B-1C49A394CB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC7F69E-4F2F-469B-978B-1C49A394CB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359ED296-3A02-41A5-AB24-8726CA440119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="182">
   <si>
     <t>ScreenName</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>Related</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
   </si>
 </sst>
 </file>
@@ -981,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2953,118 +2956,118 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>146</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C140" t="s">
-        <v>146</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
         <v>144</v>
       </c>
       <c r="C141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>147</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D142" s="4">
+      <c r="C142" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D143" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D147" s="4">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
@@ -3072,13 +3075,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
@@ -3086,13 +3089,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -3100,28 +3103,27 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
       </c>
-      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3130,13 +3132,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3145,13 +3147,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
@@ -3160,13 +3162,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3175,13 +3177,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3190,13 +3192,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3205,13 +3207,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3220,13 +3222,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3235,13 +3237,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3250,13 +3252,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3265,13 +3267,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3280,13 +3282,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3295,41 +3297,42 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C164" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D164" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C165" t="s">
-        <v>171</v>
-      </c>
-      <c r="D165">
+      <c r="C165" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -3337,13 +3340,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
         <v>120</v>
       </c>
       <c r="C167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -3351,13 +3354,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>120</v>
       </c>
       <c r="C168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -3365,13 +3368,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>120</v>
       </c>
       <c r="C169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3379,15 +3382,29 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
         <v>120</v>
       </c>
       <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>176</v>
       </c>
-      <c r="D170">
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171">
         <v>1</v>
       </c>
     </row>
@@ -3397,25 +3414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3632,32 +3630,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3676,6 +3668,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\23Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359ED296-3A02-41A5-AB24-8726CA440119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2EEDD-B534-4B74-BFB4-18CFF98CFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -431,9 +431,6 @@
     <t>ProviderOptions</t>
   </si>
   <si>
-    <t>RecordAlertAndTasks</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>Related</t>
+  </si>
+  <si>
+    <t>RecordAlertsAndTasks</t>
   </si>
   <si>
     <t>CourtOfficerNotes</t>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2747,13 +2747,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
         <v>120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2775,13 +2775,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" t="s">
-        <v>136</v>
-      </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
         <v>136</v>
-      </c>
-      <c r="C128" t="s">
-        <v>137</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2831,13 +2831,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2845,13 +2845,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
         <v>144</v>
-      </c>
-      <c r="C136" t="s">
-        <v>145</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2915,13 +2915,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" s="5">
         <v>1</v>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
@@ -2943,13 +2943,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>181</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>181</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D143" s="4">
         <v>1</v>
@@ -3013,61 +3013,61 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3222,13 +3222,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3237,13 +3237,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3267,13 +3267,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D164" s="4">
         <v>1</v>
@@ -3312,13 +3312,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D165" s="4">
         <v>1</v>
@@ -3326,13 +3326,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -3340,13 +3340,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
         <v>120</v>
       </c>
       <c r="C167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
         <v>120</v>
       </c>
       <c r="C168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -3368,13 +3368,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
         <v>120</v>
       </c>
       <c r="C169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s">
         <v>120</v>
       </c>
       <c r="C170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171" t="s">
         <v>120</v>
       </c>
       <c r="C171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -3414,6 +3414,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3630,26 +3649,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3668,31 +3693,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\23Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2EEDD-B534-4B74-BFB4-18CFF98CFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29CF6D7-E670-4FF9-BAC7-CA8EE62A2FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="189">
   <si>
     <t>ScreenName</t>
   </si>
@@ -582,6 +582,27 @@
   </si>
   <si>
     <t>CourtOfficerNotes</t>
+  </si>
+  <si>
+    <t>TribalPlacementPreferences</t>
+  </si>
+  <si>
+    <t>ParentGuardPlacementPreferences</t>
+  </si>
+  <si>
+    <t>YouthPlacementPreferences</t>
+  </si>
+  <si>
+    <t>PlacementNeeds</t>
+  </si>
+  <si>
+    <t>DocumentDistributions</t>
+  </si>
+  <si>
+    <t>CourtReports</t>
+  </si>
+  <si>
+    <t>ReleasesOfInformationAndConsent</t>
   </si>
 </sst>
 </file>
@@ -663,13 +684,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,17 +1006,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3021,7 +3043,9 @@
       <c r="C144" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D144" s="4"/>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
@@ -3033,7 +3057,9 @@
       <c r="C145" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D145" s="4"/>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
@@ -3045,7 +3071,9 @@
       <c r="C146" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
@@ -3057,45 +3085,47 @@
       <c r="C147" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>154</v>
+    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -3103,13 +3133,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
@@ -3117,58 +3147,55 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
       </c>
-      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
       </c>
-      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
-      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3177,13 +3204,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3192,13 +3219,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3207,13 +3234,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3222,13 +3249,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3237,13 +3264,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3252,13 +3279,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3267,13 +3294,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3282,13 +3309,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3297,13 +3324,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D164" s="4">
         <v>1</v>
@@ -3312,69 +3339,72 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" s="4" t="s">
+      <c r="B168" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D165" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>170</v>
-      </c>
-      <c r="B166" t="s">
-        <v>120</v>
-      </c>
-      <c r="C166" t="s">
-        <v>170</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>171</v>
-      </c>
-      <c r="B167" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167" t="s">
-        <v>171</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>172</v>
-      </c>
-      <c r="B168" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" t="s">
-        <v>172</v>
-      </c>
-      <c r="D168">
+      <c r="D168" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
         <v>120</v>
       </c>
       <c r="C169" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3382,13 +3412,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
         <v>120</v>
       </c>
       <c r="C170" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3396,17 +3426,119 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>175</v>
       </c>
-      <c r="B171" t="s">
-        <v>120</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" t="s">
         <v>175</v>
       </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3424,15 +3556,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3649,6 +3772,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
   <ds:schemaRefs>
@@ -3667,14 +3799,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3693,6 +3817,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>
